--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/DF/15/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/DF/15/seed3/result_data_KNN.xlsx
@@ -573,7 +573,7 @@
         <v>-11.02</v>
       </c>
       <c r="D8" t="n">
-        <v>-7.48</v>
+        <v>-7.575</v>
       </c>
       <c r="E8" t="n">
         <v>12.94</v>
@@ -607,7 +607,7 @@
         <v>-10.58</v>
       </c>
       <c r="D10" t="n">
-        <v>-7.912000000000001</v>
+        <v>-7.999</v>
       </c>
       <c r="E10" t="n">
         <v>16.23</v>
@@ -641,7 +641,7 @@
         <v>-15.79</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.720000000000001</v>
+        <v>-7.886000000000001</v>
       </c>
       <c r="E12" t="n">
         <v>13.01</v>
@@ -661,7 +661,7 @@
         <v>-8.92</v>
       </c>
       <c r="E13" t="n">
-        <v>13.666</v>
+        <v>12.583</v>
       </c>
     </row>
     <row r="14">
@@ -743,7 +743,7 @@
         <v>-15.19</v>
       </c>
       <c r="D18" t="n">
-        <v>-7.962000000000001</v>
+        <v>-8.167</v>
       </c>
       <c r="E18" t="n">
         <v>12.54</v>
